--- a/correos.xlsx
+++ b/correos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josue_9bo11ev\OneDrive\Escritorio\Crroe\proyecto-seguridad-correos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16349375-BA3C-442C-8A72-076366565952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A69C256-B0C5-4C75-ADE9-5350A8C242C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E0FF1C02-CF5D-4FD9-85A9-B7FBE371F056}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,9 +71,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FFE3E3E3"/>
-      <name val="Google Sans"/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,10 +111,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -439,31 +454,31 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
